--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(G)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(G).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(G)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(G).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gai
-Gaillardia - fam. Composées
+          <t>Gai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gaillardia - fam. Composées
 Gaillardia aristata ou Gaillarda grandiflora - Gaillarde vivace à grande fleur
 Gaillardia burgunder - Gaillarde bourguignonne
 Gaillardia maxima aurea
-Gaillardia picta - Gaillarde peinte
-Gal
-Galactia
+Gaillardia picta - Gaillarde peinte</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ga</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Galactia
 Galactites
 Galactites comosa - Galactites
 Galanthus - fam. Amaryllidaceae
@@ -546,60 +597,201 @@
 Galium triflorum
 Galium verum - Caille-lait jaune
 Galtonia
-Galtonia candicans
-Gar
-Garcinia
+Galtonia candicans</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ga</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Garcinia
 Garcinia gummi-gutta
 Gardenia - fam. Rubiacées
 Gardenia augusta - Jasmin du Cap
-Gardenia jasminoïdes - Gardenia faux-jasmin
-Gau
-Gaultheria -fam. Éricacées
+Gardenia jasminoïdes - Gardenia faux-jasmin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ga</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gaultheria -fam. Éricacées
 Gaultheria hispidula
 Gaultheria mucronata - Pernettya mucronée
 Gaultheria procumbens - Thé des bois
 Gaultheria shallon
 Gaura - fam. Onagracées
-Gaura lindheimeiri - Gaura de Lindheimer
-Gay
-Gaylussacia
-Gaylussacia dumosa Bigeloviana
-Gaz
-Gazania - fam. Composées
+Gaura lindheimeiri - Gaura de Lindheimer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ga</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gay</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gaylussacia
+Gaylussacia dumosa Bigeloviana</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ga</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gaz</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gazania - fam. Composées
 Gazania rigens
 Gazania splendens - Gazania
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gen
-Genista - fam. Fabaceae (Légumineuses)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Genista - fam. Fabaceae (Légumineuses)
 Genista acanthoclada
 Genista aetnensis
 Genista albida
@@ -659,13 +851,81 @@
 Gentianopsis - fam. Gentianaceae
 Gentianopsis ciliata - Gentiane ciliée
 Gentianopsis macounii
-Gentianopsis victorinii
-Geo
-Geocaulon
+Gentianopsis victorinii</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ge</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Geocaulon
 Geocaulon lividum
-Geoffroea
-Ger
-Geranium - fam. Géraniacées
+Geoffroea</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ge</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ger</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Geranium - fam. Géraniacées
 Geranium bicknellii - Géranium de Bicknell
 Geranium cantabrigiense
 Geranium cinereum
@@ -699,9 +959,43 @@
 Geranium thunbergii - Géranium
 Geranium wlassowianum - Géranium
 Gerbera - fam. Composées
-Gerbera Jamesonii - Gerbera
-Geu
-Geum - fam. Rosacées
+Gerbera Jamesonii - Gerbera</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ge</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Geu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geum - fam. Rosacées
 Geum aleppicum - Benoîte d'Alep
 Geum borisii - Benoîte de Boris
 Geum bulgaricum - Benoîte de Bulgarie
@@ -718,37 +1012,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Gi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gil
-Gilia  - fam. Polémoniacées
-Gilia tricolor - Gilia tricolore
-Gin
-Ginkgo - fam. Ginkgoacées
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gil</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Gilia  - fam. Polémoniacées
+Gilia tricolor - Gilia tricolore</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Gi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ginkgo - fam. Ginkgoacées
 Ginkgo biloba - Ginkgo  ou Arbre aux quarante écus
 Ginkgo biloba Fastigiata
 Ginkgo biloba Pendula
@@ -757,48 +1090,155 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Gl</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gla
-Gladiolus - fam. Iridacées
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gla</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Gladiolus - fam. Iridacées
 Gladiolus cultivars - Glaieul
 Gladiolus palustris
 Gladiolus segetum - Glaïeul des moissons
 Glaux
-Glaux maritima
-Gle
-Glechoma - fam. Lamiacées ou Labiatées - (lierre)
+Glaux maritima</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Gl</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Glechoma - fam. Lamiacées ou Labiatées - (lierre)
 Glechoma hederacea - Lierre terrestre
 Gleditsia - fam. Fabacée sous-fam. Césalpiniacées (arbre)
-Gleditsia caspiensis - Févier de la Caspienne
-Gli
-Gliricidia
-Glo
-Globularia - fam. Globulariacées
+Gleditsia caspiensis - Févier de la Caspienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gl</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gli</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Gliricidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gl</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Glo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Globularia - fam. Globulariacées
 Globularia alypum - Globulaire
 Globularia cordifolia - Globulaire à feuilles cordées
 Globularia elongata
@@ -806,9 +1246,43 @@
 Globularia punctata - Globulaire ponctuée
 Globularia trichosantha
 Globularia vulgaris - Globulaire commune
-Globularia willkommii - Globulaire de Willkomm
-Gly
-Glyceria
+Globularia willkommii - Globulaire de Willkomm</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gl</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gly</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyceria
 Glyceria aquatica
 Glyceria borealis - Glycérie boréale
 Glyceria canadensis - Glycérie du Canada
@@ -830,179 +1304,539 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">God
-Godetia voir à  Clarkia amoena - Onagracées
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Godetia voir à  Clarkia amoena - Onagracées
 Godetia Witneyi Grandiflora - Godetia double
-Godetia grandiflora - Godetia à grande fleur
-Gol
-Goldmania
-Gom
-Gomphocarpus
-Gomphocarpus suffruticosus - Gomphocarpe
-Gon
-Goniolimon
+Godetia grandiflora - Godetia à grande fleur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Gol</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Goldmania</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Gomphocarpus
+Gomphocarpus suffruticosus - Gomphocarpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Gon</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Goniolimon
 Goniolimon tataricum
-Goniorrhachis
-Goo
-Goodyera - fam. Orchidacées
+Goniorrhachis</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Goo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Goodyera - fam. Orchidacées
 Goodyera repens - Goodyère rampante
-Goodyera tesselata
-Gos
-Gossypium - fam. Malvaceae (arbuste)
+Goodyera tesselata</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Gos</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gossypium - fam. Malvaceae (arbuste)
 Gossypium arboreum - Cotonnier en arbre
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Gr</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gra
-Gratiola
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Gratiola
 Gratiola aurera
 Gratiola officinalis
 Gratiola neglecta glaberrima
-Grazielodendron
-Gri
-Grindelia
+Grazielodendron</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Gr</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Gri</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grindelia
 Grindelia chiloensis
  rindelia integrifolia
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Gu</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gui
-Guibourtia
-Gun
-Gunnera - fam. Halorragidacée
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Gui</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Guibourtia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Gu</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Gun</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Gunnera - fam. Halorragidacée
 Gunnera chilensis
 Gunnera magellanica
 Gunnera manicata
 Gunnera scabra
-Gunnera tinctoria
-Guz
-Guzmania
+Gunnera tinctoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Guz</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guzmania
 Guzmania lingulata
 Guzmania lingulata minor' - Guzmania
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Gy</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gym
-Gymnadenia - fam. Orchidacées
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Gym</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Gymnadenia - fam. Orchidacées
 Gymnadenia conopsea - Orchis moucheron
 Gymnocarpium - fam. Dryoptéridacées (fougère)
-Gymnocarpium dryopteris ou Dryopteris linnaena - Fougère du Chêne
-Gyn
-Gynerium - fam. Poacées
+Gymnocarpium dryopteris ou Dryopteris linnaena - Fougère du Chêne</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Gyn</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Gynerium - fam. Poacées
 Gynerium argenteum ou Cortaderia argentea - Herbe de la pampa
 Gynerium argenteum Albo lineatis - Herbe de la pampa à feuilles rubanées de blanc
 Gynerium argenteum Aureo variegatis - Herbe de la pampa à feuilles rubanées de jaune
 Gynerium argenteum Gigantea - Herbe de la pampa à panicules blanches
-Gynerium argenteum Rosea - Herbe de la pampa à inflorescence rose
-Gyp
-Gypsophila - fam. Caryophyllacées
+Gynerium argenteum Rosea - Herbe de la pampa à inflorescence rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(G)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Gyp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gypsophila - fam. Caryophyllacées
 Gypsophila elegans - Gypsophile élégant
 Gypsophila monstrosa
 Gypsophila pacifica
